--- a/biology/Écologie/Marais_de_l'Omignon/Marais_de_l'Omignon.xlsx
+++ b/biology/Écologie/Marais_de_l'Omignon/Marais_de_l'Omignon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marais_de_l%27Omignon</t>
+          <t>Marais_de_l'Omignon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les marais de l'Omignon sont situés le long de l'Omignon, affluent de la rive droite de la Somme, dans les départements de l'Aisne et de la Somme.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marais_de_l%27Omignon</t>
+          <t>Marais_de_l'Omignon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les marais de l'Omignon s'étendent depuis la source de la rivière à Pontru jusqu'à sa confluence une vingtaine de kilomètres plus au sud, à Brie. 
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marais_de_l%27Omignon</t>
+          <t>Marais_de_l'Omignon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,23 +557,14 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les marais de l'Omignon sont constitués de prairies humides, saulaies et étangs poissonneux.
-L'Omignon traverse les deux étangs de Vermand (ZNIEFF 220 005 028[1])  et le marais de Caulaincourt. Les herbiers les constituant sont favorables à la reproduction du brochet[2].
-Les roselières permettent la reproduction d’espèces animales rares et les étangs sont une halte migratoire et hivernale pour les oiseaux aquatiques[1].
-Faune
-Oiseaux
-Rousserolle turdoïde (passereau), inscrite sur la liste des oiseaux nicheurs de Picardie à protéger ;
-Butor étoilé, (héron), espèce menacée en France et en Europe...
-Poissons
-Brochet ;
-Lote de rivière...
-Insectes
-Sympétrum commun (libellule), en raréfaction en Picardie...
-Flore
-Morène (variété de nénuphar), en voie de disparition en Picardie...
-végétation semblable à celle de la vallée de la Somme dans les vases hors d'eau.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les marais de l'Omignon sont constitués de prairies humides, saulaies et étangs poissonneux.
+L'Omignon traverse les deux étangs de Vermand (ZNIEFF 220 005 028)  et le marais de Caulaincourt. Les herbiers les constituant sont favorables à la reproduction du brochet.
+Les roselières permettent la reproduction d’espèces animales rares et les étangs sont une halte migratoire et hivernale pour les oiseaux aquatiques.
+</t>
         </is>
       </c>
     </row>
@@ -569,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marais_de_l%27Omignon</t>
+          <t>Marais_de_l'Omignon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,10 +589,171 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Rousserolle turdoïde (passereau), inscrite sur la liste des oiseaux nicheurs de Picardie à protéger ;
+Butor étoilé, (héron), espèce menacée en France et en Europe...</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marais_de_l'Omignon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marais_de_l%27Omignon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Poissons</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Brochet ;
+Lote de rivière...</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marais_de_l'Omignon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marais_de_l%27Omignon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sympétrum commun (libellule), en raréfaction en Picardie...</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marais_de_l'Omignon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marais_de_l%27Omignon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Morène (variété de nénuphar), en voie de disparition en Picardie...
+végétation semblable à celle de la vallée de la Somme dans les vases hors d'eau.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marais_de_l'Omignon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marais_de_l%27Omignon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Sites naturels de Picardie
 Site naturel de la Somme</t>
